--- a/Data/EC/NIT-9005578746.xlsx
+++ b/Data/EC/NIT-9005578746.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1274656-03FD-4E37-842B-69E3FC5D29FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD9B1233-3A5A-4257-9C6C-941BD10E3367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{19203FE1-F350-4D09-BA2C-E51B93AEF3C4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A2F1624A-C0CD-4CD6-8B19-6C2CEB84B5A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,54 +71,54 @@
     <t>LUZ AYDE CARDENAS PINEDA</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
     <t>1702</t>
   </si>
   <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
     <t>1047477133</t>
   </si>
   <si>
     <t>CARLOS DANIEL BARRAZA CADENA</t>
   </si>
   <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
     <t>2312</t>
   </si>
   <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
     <t>1001972719</t>
   </si>
   <si>
@@ -128,12 +128,6 @@
     <t>2504</t>
   </si>
   <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
     <t>1002195286</t>
   </si>
   <si>
@@ -143,16 +137,13 @@
     <t>2506</t>
   </si>
   <si>
-    <t>2505</t>
-  </si>
-  <si>
     <t>1017254531</t>
   </si>
   <si>
     <t>STEFFANY ANDREA MEZA RENGIFO</t>
   </si>
   <si>
-    <t>2507</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -251,7 +242,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -264,9 +257,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -466,23 +457,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -510,10 +501,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -566,7 +557,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3D59EE3-2513-8453-B916-8DC290A385B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0539C0C-6480-99E4-3DBD-EEEB4AA7C0BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -917,8 +908,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77CDCFF4-8D42-4B6C-B9CA-EDD68DEC6FD2}">
-  <dimension ref="B2:J42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CB2A76-E6FC-4D75-B59C-151B0255373C}">
+  <dimension ref="B2:J38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -942,7 +933,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -987,7 +978,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1019,12 +1010,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>865013</v>
+        <v>690080</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1035,17 +1026,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C13" s="5">
         <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F13" s="5">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1072,13 +1063,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1420,7 +1411,7 @@
         <v>56000</v>
       </c>
       <c r="G30" s="18">
-        <v>1400000</v>
+        <v>1423500</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1431,167 +1422,75 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F31" s="18">
-        <v>56000</v>
+        <v>52000</v>
       </c>
       <c r="G31" s="18">
-        <v>1400000</v>
+        <v>1423500</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="18">
+      <c r="B32" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="24">
         <v>56000</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="24">
         <v>1400000</v>
       </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G33" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G34" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G35" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" s="24">
-        <v>14933</v>
-      </c>
-      <c r="G36" s="24">
-        <v>1400000</v>
-      </c>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="26"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="32"/>
-      <c r="H41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="32"/>
-      <c r="H42" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="26"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="32"/>
+      <c r="H37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="32"/>
+      <c r="H38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H37:J37"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9005578746.xlsx
+++ b/Data/EC/NIT-9005578746.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD9B1233-3A5A-4257-9C6C-941BD10E3367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{053EC947-C872-4EB5-84A1-8173634F680E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A2F1624A-C0CD-4CD6-8B19-6C2CEB84B5A0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DDBE67A8-7C12-4074-B198-2689C67B9C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="48">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>2508</t>
+  </si>
+  <si>
+    <t>2509</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -242,9 +245,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -257,7 +258,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -451,29 +454,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -492,19 +495,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -557,7 +566,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0539C0C-6480-99E4-3DBD-EEEB4AA7C0BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F8571B7-7179-4C15-D5F7-A0599B10EDFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -908,8 +917,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CB2A76-E6FC-4D75-B59C-151B0255373C}">
-  <dimension ref="B2:J38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A44C2A-2A92-4FF5-8B89-3D1FD7979AAC}">
+  <dimension ref="B2:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -931,57 +940,57 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -997,7 +1006,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9005578746</v>
       </c>
@@ -1010,12 +1019,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
-        <v>690080</v>
+        <v>746080</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1026,17 +1035,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="5">
         <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F13" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1063,13 +1072,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>41</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1082,18 +1091,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>30960</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>2200000</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1105,18 +1114,18 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>30960</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>2200000</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1128,18 +1137,18 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>30960</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>2200000</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1151,18 +1160,18 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>30960</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>2200000</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1174,18 +1183,18 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>30960</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>2200000</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1197,18 +1206,18 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>30960</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>2200000</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1220,18 +1229,18 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>30960</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>2200000</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1243,18 +1252,18 @@
       <c r="D23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>30960</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>2200000</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1266,18 +1275,18 @@
       <c r="D24" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>46400</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>1300000</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1289,18 +1298,18 @@
       <c r="D25" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>46400</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>1300000</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1312,18 +1321,18 @@
       <c r="D26" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>46400</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>1300000</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1335,18 +1344,18 @@
       <c r="D27" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>46400</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="19">
         <v>1300000</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1358,18 +1367,18 @@
       <c r="D28" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>46400</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>1300000</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1381,18 +1390,18 @@
       <c r="D29" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>46400</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="19">
         <v>1300000</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1404,18 +1413,18 @@
       <c r="D30" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="19">
         <v>56000</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="19">
         <v>1423500</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1427,70 +1436,93 @@
       <c r="D31" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="19">
         <v>52000</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="19">
         <v>1423500</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="22" t="s">
+      <c r="B32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F32" s="19">
         <v>56000</v>
       </c>
-      <c r="G32" s="24">
+      <c r="G32" s="19">
         <v>1400000</v>
       </c>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="26"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="32"/>
-      <c r="H37" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="26">
+        <v>56000</v>
+      </c>
+      <c r="G33" s="26">
+        <v>1400000</v>
+      </c>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="28"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="32"/>
+      <c r="B38" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="34"/>
       <c r="H38" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="34"/>
+      <c r="H39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B39:C39"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="H39:J39"/>
     <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H37:J37"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
